--- a/Tundp.xlsx
+++ b/Tundp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">T in K</t>
   </si>
@@ -37,21 +37,30 @@
     <t xml:space="preserve">1/k/T in 1/J</t>
   </si>
   <si>
-    <t xml:space="preserve">U in mV</t>
+    <t xml:space="preserve">U in V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h in cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~2,18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -68,13 +77,24 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,8 +131,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -125,7 +157,779 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>U in V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="10893411"/>
+        <c:axId val="36147658"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10893411"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36147658"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="36147658"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10893411"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$31:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.309597523219814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.317460317460317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.324675324675325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.341296928327645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.348432055749129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.355871886120996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36231884057971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3690036900369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.374531835205993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.380228136882129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.381679389312977</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.383141762452107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.387596899224806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$31:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="21260050"/>
+        <c:axId val="28281322"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="21260050"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28281322"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28281322"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21260050"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>195120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5636880" y="36000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>275040</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7317000" y="4855320"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -133,15 +937,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -151,7 +957,7 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -162,6 +968,9 @@
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -171,7 +980,7 @@
       <c r="B2" s="0" t="n">
         <v>99.23</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <f aca="false">B2*7.50062</f>
         <v>744.2865226</v>
       </c>
@@ -183,6 +992,12 @@
         <f aca="false">D2/1.381E-023</f>
         <v>1.72407848005241E+022</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -191,7 +1006,7 @@
       <c r="B3" s="0" t="n">
         <v>90.13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">B3*7.50062</f>
         <v>676.0308806</v>
       </c>
@@ -203,6 +1018,9 @@
         <f aca="false">D3/1.381E-023</f>
         <v>1.76612917468784E+022</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -211,7 +1029,7 @@
       <c r="B4" s="0" t="n">
         <v>81.62</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">B4*7.50062</f>
         <v>612.2006044</v>
       </c>
@@ -223,6 +1041,9 @@
         <f aca="false">D4/1.381E-023</f>
         <v>1.81028240405503E+022</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -231,7 +1052,7 @@
       <c r="B5" s="0" t="n">
         <v>73.66</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false">B5*7.50062</f>
         <v>552.4956692</v>
       </c>
@@ -243,6 +1064,9 @@
         <f aca="false">D5/1.381E-023</f>
         <v>1.85669990159491E+022</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -251,7 +1075,7 @@
       <c r="B6" s="0" t="n">
         <v>66.25</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">B6*7.50062</f>
         <v>496.916075</v>
       </c>
@@ -263,6 +1087,9 @@
         <f aca="false">D6/1.381E-023</f>
         <v>1.90556042532109E+022</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -271,7 +1098,7 @@
       <c r="B7" s="0" t="n">
         <v>59.35</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">B7*7.50062</f>
         <v>445.161797</v>
       </c>
@@ -283,6 +1110,9 @@
         <f aca="false">D7/1.381E-023</f>
         <v>1.95706205843787E+022</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -291,7 +1121,7 @@
       <c r="B8" s="0" t="n">
         <v>52.96</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false">B8*7.50062</f>
         <v>397.2328352</v>
       </c>
@@ -303,6 +1133,9 @@
         <f aca="false">D8/1.381E-023</f>
         <v>2.01142489339448E+022</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -311,7 +1144,7 @@
       <c r="B9" s="0" t="n">
         <v>47.05</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false">B9*7.50062</f>
         <v>352.904171</v>
       </c>
@@ -323,6 +1156,9 @@
         <f aca="false">D9/1.381E-023</f>
         <v>2.0688941760629E+022</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -331,7 +1167,7 @@
       <c r="B10" s="0" t="n">
         <v>41.6</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">B10*7.50062</f>
         <v>312.025792</v>
       </c>
@@ -343,6 +1179,12 @@
         <f aca="false">D10/1.381E-023</f>
         <v>2.12974400477063E+022</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -351,7 +1193,7 @@
       <c r="B11" s="0" t="n">
         <v>36.59</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">B11*7.50062</f>
         <v>274.4476858</v>
       </c>
@@ -363,6 +1205,9 @@
         <f aca="false">D11/1.381E-023</f>
         <v>2.19428170188489E+022</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -371,7 +1216,7 @@
       <c r="B12" s="0" t="n">
         <v>32.01</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false">B12*7.50062</f>
         <v>240.0948462</v>
       </c>
@@ -383,6 +1228,9 @@
         <f aca="false">D12/1.381E-023</f>
         <v>2.26285300506879E+022</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -391,7 +1239,7 @@
       <c r="B13" s="0" t="n">
         <v>27.84</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false">B13*7.50062</f>
         <v>208.8172608</v>
       </c>
@@ -403,6 +1251,9 @@
         <f aca="false">D13/1.381E-023</f>
         <v>2.33584826329682E+022</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -411,7 +1262,7 @@
       <c r="B14" s="0" t="n">
         <v>24.05</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">B14*7.50062</f>
         <v>180.389911</v>
       </c>
@@ -423,6 +1274,9 @@
         <f aca="false">D14/1.381E-023</f>
         <v>2.41370987207338E+022</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -431,7 +1285,7 @@
       <c r="B15" s="0" t="n">
         <v>20.63</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false">B15*7.50062</f>
         <v>154.7377906</v>
       </c>
@@ -443,6 +1297,12 @@
         <f aca="false">D15/1.381E-023</f>
         <v>2.49694124697246E+022</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -451,7 +1311,7 @@
       <c r="B16" s="0" t="n">
         <v>17.55</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false">B16*7.50062</f>
         <v>131.635881</v>
       </c>
@@ -463,6 +1323,9 @@
         <f aca="false">D16/1.381E-023</f>
         <v>2.58611772007862E+022</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -471,7 +1334,7 @@
       <c r="B17" s="0" t="n">
         <v>14.81</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <f aca="false">B17*7.50062</f>
         <v>111.0841822</v>
       </c>
@@ -483,6 +1346,9 @@
         <f aca="false">D17/1.381E-023</f>
         <v>2.68189985785931E+022</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -491,7 +1357,7 @@
       <c r="B18" s="0" t="n">
         <v>12.37</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <f aca="false">B18*7.50062</f>
         <v>92.7826694</v>
       </c>
@@ -503,6 +1369,9 @@
         <f aca="false">D18/1.381E-023</f>
         <v>2.78504985239236E+022</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>2.18</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -511,7 +1380,7 @@
       <c r="B19" s="0" t="n">
         <v>10.23</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <f aca="false">B19*7.50062</f>
         <v>76.7313426</v>
       </c>
@@ -523,6 +1392,9 @@
         <f aca="false">D19/1.381E-023</f>
         <v>2.89645184648805E+022</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>2.27</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -531,7 +1403,7 @@
       <c r="B20" s="0" t="n">
         <v>8.354</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <f aca="false">B20*7.50062</f>
         <v>62.66017948</v>
       </c>
@@ -543,6 +1415,9 @@
         <f aca="false">D20/1.381E-023</f>
         <v>3.01713734009172E+022</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -551,7 +1426,7 @@
       <c r="B21" s="0" t="n">
         <v>6.73</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <f aca="false">B21*7.50062</f>
         <v>50.4791726</v>
       </c>
@@ -563,6 +1438,12 @@
         <f aca="false">D21/1.381E-023</f>
         <v>3.14831722444354E+022</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -571,7 +1452,7 @@
       <c r="B22" s="0" t="n">
         <v>5.335</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <f aca="false">B22*7.50062</f>
         <v>40.0158077</v>
       </c>
@@ -583,105 +1464,359 @@
         <f aca="false">D22/1.381E-023</f>
         <v>3.29142255282733E+022</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>2.1</v>
+      <c r="A23" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>4.141</v>
+        <f aca="false">C23/7.50062</f>
+        <v>5.06624785684384</v>
       </c>
       <c r="C23" s="0" t="n">
-        <f aca="false">B23*7.50062</f>
-        <v>31.06006742</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <f aca="false">1/A23</f>
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <f aca="false">D23/1.381E-023</f>
-        <v>3.44815696010482E+022</v>
+        <v>38</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>28.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>3.13</v>
+        <v>4.958</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">B24*7.50062</f>
-        <v>23.4769406</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <f aca="false">1/A24</f>
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">D24/1.381E-023</f>
-        <v>3.62056480811007E+022</v>
+        <v>37.18807396</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2.299</v>
-      </c>
-      <c r="C25" s="0" t="n">
+        <v>4.141</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <f aca="false">B25*7.50062</f>
-        <v>17.24392538</v>
+        <v>31.06006742</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">1/A25</f>
-        <v>0.526315789473684</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">D25/1.381E-023</f>
-        <v>3.81112085064217E+022</v>
+        <v>3.44815696010482E+022</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1.638</v>
-      </c>
-      <c r="C26" s="0" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <f aca="false">B26*7.50062</f>
-        <v>12.28601556</v>
+        <v>23.4769406</v>
       </c>
       <c r="D26" s="0" t="n">
         <f aca="false">1/A26</f>
-        <v>0.555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="0" t="n">
         <f aca="false">D26/1.381E-023</f>
-        <v>4.02284978678896E+022</v>
+        <v>3.62056480811007E+022</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>26.7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1.128</v>
-      </c>
-      <c r="C27" s="0" t="n">
+        <v>2.299</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <f aca="false">B27*7.50062</f>
-        <v>8.46069936</v>
+        <v>17.24392538</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">1/A27</f>
-        <v>0.588235294117647</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">D27/1.381E-023</f>
+        <v>3.81112085064217E+022</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <f aca="false">B28*7.50062</f>
+        <v>12.28601556</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">1/A28</f>
+        <v>0.555555555555556</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">D28/1.381E-023</f>
+        <v>4.02284978678896E+022</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <f aca="false">B29*7.50062</f>
+        <v>8.46069936</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">1/A29</f>
+        <v>0.588235294117647</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">D29/1.381E-023</f>
         <v>4.25948800954125E+022</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">1/G31</f>
+        <v>0.309597523219814</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">1/G32</f>
+        <v>0.317460317460317</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">1/G33</f>
+        <v>0.324675324675325</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">1/G34</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">1/G35</f>
+        <v>0.341296928327645</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <f aca="false">1/G36</f>
+        <v>0.348432055749129</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">1/G37</f>
+        <v>0.355871886120996</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">1/G38</f>
+        <v>0.36231884057971</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">1/G39</f>
+        <v>0.3690036900369</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">1/G40</f>
+        <v>0.374531835205993</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">1/G41</f>
+        <v>0.380228136882129</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">1/G42</f>
+        <v>0.381679389312977</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">1/G43</f>
+        <v>0.383141762452107</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">1/G44</f>
+        <v>0.384615384615385</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">1/G45</f>
+        <v>0.387596899224806</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -692,5 +1827,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tundp.xlsx
+++ b/Tundp.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Dropbox\Uni\FS VI SoSe_17\FP\tieftemp_Messung\tieftemp_messung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,42 +24,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">T in K</t>
+    <t>T in K</t>
   </si>
   <si>
-    <t xml:space="preserve">p in kPa</t>
+    <t>p in kPa</t>
   </si>
   <si>
-    <t xml:space="preserve">p in Torr</t>
+    <t>p in Torr</t>
   </si>
   <si>
-    <t xml:space="preserve">1/T in 1/K</t>
+    <t>1/T in 1/K</t>
   </si>
   <si>
-    <t xml:space="preserve">1/k/T in 1/J</t>
+    <t>1/k/T in 1/J</t>
   </si>
   <si>
-    <t xml:space="preserve">U in V</t>
+    <t>U in V</t>
   </si>
   <si>
-    <t xml:space="preserve">h in cm</t>
+    <t>h in cm</t>
   </si>
   <si>
-    <t xml:space="preserve">~2,18</t>
+    <t>~2,18</t>
+  </si>
+  <si>
+    <t>p probe in Torr</t>
+  </si>
+  <si>
+    <t>∆p</t>
+  </si>
+  <si>
+    <t>p Probe in kPa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -64,26 +75,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,9 +92,15 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -106,57 +108,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -215,17 +186,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -244,9 +235,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -261,12 +249,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -277,103 +278,103 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tabelle1!$A$2:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>4.2</c:v>
+                  <c:v>4,2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1</c:v>
+                  <c:v>4,1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9</c:v>
+                  <c:v>3,9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8</c:v>
+                  <c:v>3,8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7</c:v>
+                  <c:v>3,7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6</c:v>
+                  <c:v>3,6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>3,5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4</c:v>
+                  <c:v>3,4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3</c:v>
+                  <c:v>3,3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2</c:v>
+                  <c:v>3,2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1</c:v>
+                  <c:v>3,1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9</c:v>
+                  <c:v>2,9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8</c:v>
+                  <c:v>2,8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7</c:v>
+                  <c:v>2,7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.6</c:v>
+                  <c:v>2,6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5</c:v>
+                  <c:v>2,5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4</c:v>
+                  <c:v>2,4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3</c:v>
+                  <c:v>2,3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2</c:v>
+                  <c:v>2,2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>~2,18</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>2,17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2,1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>1,9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6</c:v>
+                  <c:v>1,8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1,7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -430,7 +431,7 @@
                   <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.18</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.27</c:v>
@@ -443,12 +444,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2.73</c:v>
@@ -469,7 +464,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E7B-41DF-8447-0FB8C6824092}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="10893411"/>
         <c:axId val="36147658"/>
       </c:scatterChart>
@@ -487,26 +495,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="36147658"/>
@@ -524,7 +534,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -536,26 +546,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="10893411"/>
@@ -566,7 +578,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -583,24 +595,34 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -608,9 +630,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -625,12 +644,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -639,49 +671,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.309597523219814</c:v>
+                  <c:v>0.30959752321981426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.317460317460317</c:v>
+                  <c:v>0.31746031746031744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.324675324675325</c:v>
+                  <c:v>0.32467532467532467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.341296928327645</c:v>
+                  <c:v>0.34129692832764502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.348432055749129</c:v>
+                  <c:v>0.34843205574912889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.355871886120996</c:v>
+                  <c:v>0.35587188612099646</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36231884057971</c:v>
+                  <c:v>0.3623188405797102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3690036900369</c:v>
+                  <c:v>0.36900369003690037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.374531835205993</c:v>
+                  <c:v>0.37453183520599254</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.380228136882129</c:v>
+                  <c:v>0.38022813688212931</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.381679389312977</c:v>
+                  <c:v>0.38167938931297707</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.383141762452107</c:v>
+                  <c:v>0.38314176245210729</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.384615384615385</c:v>
+                  <c:v>0.38461538461538458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.387596899224806</c:v>
+                  <c:v>0.38759689922480617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,7 +734,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.4</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
@@ -741,7 +773,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C11E-4F26-8CCB-1ED870BCA328}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="21260050"/>
         <c:axId val="28281322"/>
       </c:scatterChart>
@@ -759,26 +804,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="28281322"/>
@@ -796,7 +843,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -808,26 +855,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="21260050"/>
@@ -838,7 +887,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -855,41 +904,53 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68110</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>226870</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140880</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5636880" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -908,18 +969,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:colOff>116290</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7317000" y="4855320"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -932,901 +999,1545 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col min="1" max="2" width="11.36328125"/>
+    <col min="3" max="3" width="11.36328125" style="1"/>
+    <col min="4" max="5" width="11.36328125"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="8" width="11.36328125"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="11" max="1025" width="11.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>4.2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="6">
         <v>99.23</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <f aca="false">B2*7.50062</f>
-        <v>744.2865226</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">1/A2</f>
-        <v>0.238095238095238</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">D2/1.381E-023</f>
-        <v>1.72407848005241E+022</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="C2" s="7">
+        <f t="shared" ref="C2:C22" si="0">B2*7.50062</f>
+        <v>744.28652260000001</v>
+      </c>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D22" si="1">1/A2</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:E22" si="2">D2/1.381E-23</f>
+        <v>1.7240784800524119E+22</v>
+      </c>
+      <c r="F2" s="8">
+        <f>C2+9.81*7.50062*(I2/100)*(145)/1000</f>
+        <v>748.98099564436006</v>
+      </c>
+      <c r="G2" s="6">
         <v>1.39</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2" s="8">
+        <f>F2-C2</f>
+        <v>4.694473044360052</v>
+      </c>
+      <c r="I2" s="6">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="J2" s="6">
+        <f>F2/7.50062</f>
+        <v>99.855878000000018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B3">
         <v>90.13</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <f aca="false">B3*7.50062</f>
-        <v>676.0308806</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">1/A3</f>
-        <v>0.24390243902439</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">D3/1.381E-023</f>
-        <v>1.76612917468784E+022</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>676.03088059999993</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0.24390243902439027</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="2"/>
+        <v>1.766129174687837E+22</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F29" si="3">C3+9.81*7.50062*(I3/100)*(145)/1000</f>
+        <v>676.03088059999993</v>
+      </c>
+      <c r="G3">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H29" si="4">F3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J29" si="5">F3/7.50062</f>
+        <v>90.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>81.62</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">B4*7.50062</f>
-        <v>612.2006044</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">1/A4</f>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>612.20060439999997</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">D4/1.381E-023</f>
-        <v>1.81028240405503E+022</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1.8102824040550327E+22</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="3"/>
+        <v>612.20060439999997</v>
+      </c>
+      <c r="G4">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="H4" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>81.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3.9</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>73.66</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">B5*7.50062</f>
-        <v>552.4956692</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">1/A5</f>
-        <v>0.256410256410257</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">D5/1.381E-023</f>
-        <v>1.85669990159491E+022</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>552.49566919999995</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.25641025641025644</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>1.8566999015949056E+22</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>552.49566919999995</v>
+      </c>
+      <c r="G5">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="H5" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>73.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3.8</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>66.25</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">B6*7.50062</f>
-        <v>496.916075</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">1/A6</f>
-        <v>0.263157894736842</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">D6/1.381E-023</f>
-        <v>1.90556042532109E+022</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>496.91607499999998</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1.9055604253210867E+22</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
+        <v>496.91607499999998</v>
+      </c>
+      <c r="G6">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="H6" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3.7</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>59.35</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <f aca="false">B7*7.50062</f>
-        <v>445.161797</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">1/A7</f>
-        <v>0.27027027027027</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">D7/1.381E-023</f>
-        <v>1.95706205843787E+022</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>445.16179699999998</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.27027027027027023</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>1.9570620584378728E+22</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>445.16179699999998</v>
+      </c>
+      <c r="G7">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="H7" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>59.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3.6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>52.96</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">B8*7.50062</f>
-        <v>397.2328352</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">1/A8</f>
-        <v>0.277777777777778</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">D8/1.381E-023</f>
-        <v>2.01142489339448E+022</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>397.23283520000001</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>2.0114248933944806E+22</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="3"/>
+        <v>397.23283520000001</v>
+      </c>
+      <c r="G8">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="H8" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>52.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>47.05</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">B9*7.50062</f>
-        <v>352.904171</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">1/A9</f>
-        <v>0.285714285714286</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">D9/1.381E-023</f>
-        <v>2.0688941760629E+022</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>352.90417099999996</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>2.0688941760628941E+22</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>352.90417099999996</v>
+      </c>
+      <c r="G9">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="H9" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>47.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>3.4</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="6">
         <v>41.6</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">B10*7.50062</f>
-        <v>312.025792</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">1/A10</f>
-        <v>0.294117647058824</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <f aca="false">D10/1.381E-023</f>
-        <v>2.12974400477063E+022</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>312.02579199999997</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1297440047706268E+22</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="3"/>
+        <v>315.86672449083994</v>
+      </c>
+      <c r="G10" s="6">
         <v>1.7</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="H10" s="8">
+        <f t="shared" si="4"/>
+        <v>3.8409324908399753</v>
+      </c>
+      <c r="I10" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="J10" s="6">
+        <f t="shared" si="5"/>
+        <v>42.112081999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>3.3</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">B11*7.50062</f>
-        <v>274.4476858</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">1/A11</f>
-        <v>0.303030303030303</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">D11/1.381E-023</f>
-        <v>2.19428170188489E+022</v>
-      </c>
-      <c r="G11" s="0" t="n">
+      <c r="B11">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>274.44768579999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>2.1942817018848882E+22</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>274.44768579999999</v>
+      </c>
+      <c r="G11">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="H11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>36.590000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>3.2</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>32.01</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <f aca="false">B12*7.50062</f>
-        <v>240.0948462</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">1/A12</f>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>240.09484619999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
         <v>0.3125</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">D12/1.381E-023</f>
-        <v>2.26285300506879E+022</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>2.2628530050687908E+22</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
+        <v>240.09484619999998</v>
+      </c>
+      <c r="G12">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="H12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>3.1</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>27.84</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <f aca="false">B13*7.50062</f>
-        <v>208.8172608</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">1/A13</f>
-        <v>0.32258064516129</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">D13/1.381E-023</f>
-        <v>2.33584826329682E+022</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>208.81726079999999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>2.3358482632968164E+22</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="3"/>
+        <v>208.81726079999999</v>
+      </c>
+      <c r="G13">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="H13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>24.05</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">B14*7.50062</f>
-        <v>180.389911</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false">1/A14</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">D14/1.381E-023</f>
-        <v>2.41370987207338E+022</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>180.38991099999998</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>2.4137098720733768E+22</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="3"/>
+        <v>180.38991099999998</v>
+      </c>
+      <c r="G14">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="H14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>2.9</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="6">
         <v>20.63</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <f aca="false">B15*7.50062</f>
-        <v>154.7377906</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false">1/A15</f>
-        <v>0.344827586206897</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">D15/1.381E-023</f>
-        <v>2.49694124697246E+022</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>154.73779059999998</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4969412469724589E+22</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="3"/>
+        <v>158.25864538326999</v>
+      </c>
+      <c r="G15" s="6">
         <v>1.97</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="H15" s="8">
+        <f t="shared" si="4"/>
+        <v>3.5208547832700106</v>
+      </c>
+      <c r="I15" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="J15" s="6">
+        <f t="shared" si="5"/>
+        <v>21.099408499999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2.8</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>17.55</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">B16*7.50062</f>
-        <v>131.635881</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">1/A16</f>
-        <v>0.357142857142857</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">D16/1.381E-023</f>
-        <v>2.58611772007862E+022</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>131.63588100000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2.5861177200786182E+22</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>131.63588100000001</v>
+      </c>
+      <c r="G16">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="H16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2.7</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>14.81</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <f aca="false">B17*7.50062</f>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
         <v>111.0841822</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">1/A17</f>
-        <v>0.37037037037037</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <f aca="false">D17/1.381E-023</f>
-        <v>2.68189985785931E+022</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2.6818998578593074E+22</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="3"/>
+        <v>111.0841822</v>
+      </c>
+      <c r="G17">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="H17" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2.6</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>12.37</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <f aca="false">B18*7.50062</f>
-        <v>92.7826694</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">1/A18</f>
-        <v>0.384615384615385</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">D18/1.381E-023</f>
-        <v>2.78504985239236E+022</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>92.782669399999989</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>2.7850498523923577E+22</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="3"/>
+        <v>92.782669399999989</v>
+      </c>
+      <c r="G18">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2.5</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>10.23</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <f aca="false">B19*7.50062</f>
-        <v>76.7313426</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">1/A19</f>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>76.731342600000005</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <f aca="false">D19/1.381E-023</f>
-        <v>2.89645184648805E+022</v>
-      </c>
-      <c r="G19" s="0" t="n">
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>2.8964518464880525E+22</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="3"/>
+        <v>76.731342600000005</v>
+      </c>
+      <c r="G19">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="H19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2.4</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>8.354</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <f aca="false">B20*7.50062</f>
-        <v>62.66017948</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <f aca="false">1/A20</f>
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <f aca="false">D20/1.381E-023</f>
-        <v>3.01713734009172E+022</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="B20">
+        <v>8.3539999999999992</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>62.660179479999989</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>3.0171373400917212E+22</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="3"/>
+        <v>62.660179479999989</v>
+      </c>
+      <c r="G20">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="H20" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>8.3539999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B21">
         <v>6.73</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <f aca="false">B21*7.50062</f>
-        <v>50.4791726</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <f aca="false">1/A21</f>
-        <v>0.434782608695652</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <f aca="false">D21/1.381E-023</f>
-        <v>3.14831722444354E+022</v>
-      </c>
-      <c r="G21" s="0" t="n">
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>50.479172599999998</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>3.1483172244435352E+22</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="3"/>
+        <v>53.626603391105</v>
+      </c>
+      <c r="G21">
         <v>2.46</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="H21" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1474307911050019</v>
+      </c>
+      <c r="I21">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="B22" s="0" t="n">
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>7.1496227500000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B22" s="6">
         <v>5.335</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <f aca="false">B22*7.50062</f>
-        <v>40.0158077</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <f aca="false">1/A22</f>
-        <v>0.454545454545455</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <f aca="false">D22/1.381E-023</f>
-        <v>3.29142255282733E+022</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="C22" s="7">
+        <f t="shared" si="0"/>
+        <v>40.015807699999996</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="2"/>
+        <v>3.2914225528273319E+22</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="3"/>
+        <v>43.163238491104998</v>
+      </c>
+      <c r="G22" s="6">
         <v>2.57</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="H22" s="8">
+        <f t="shared" si="4"/>
+        <v>3.1474307911050019</v>
+      </c>
+      <c r="I22" s="2">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="J22" s="6">
+        <f t="shared" si="5"/>
+        <v>5.7546227500000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <f aca="false">C23/7.50062</f>
-        <v>5.06624785684384</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="6">
+        <f>C23/7.50062</f>
+        <v>5.0662478568438347</v>
+      </c>
+      <c r="C23" s="6">
         <v>38</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8">
+        <f t="shared" si="3"/>
+        <v>41.040738221914999</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8">
+        <f t="shared" si="4"/>
+        <v>3.0407382219149994</v>
+      </c>
+      <c r="I23" s="2">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="J23" s="6">
+        <f t="shared" si="5"/>
+        <v>5.471646106843834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2.17</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>4.958</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <f aca="false">B24*7.50062</f>
-        <v>37.18807396</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="B24">
+        <v>4.9580000000000002</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C29" si="6">B24*7.50062</f>
+        <v>37.188073959999997</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="3"/>
+        <v>37.188073959999997</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>4.9580000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>2.1</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="6">
         <v>4.141</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <f aca="false">B25*7.50062</f>
-        <v>31.06006742</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <f aca="false">1/A25</f>
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">D25/1.381E-023</f>
-        <v>3.44815696010482E+022</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="C25" s="7">
+        <f t="shared" si="6"/>
+        <v>31.060067419999999</v>
+      </c>
+      <c r="D25" s="6">
+        <f>1/A25</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="E25" s="6">
+        <f>D25/1.381E-23</f>
+        <v>3.4481569601048237E+22</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="3"/>
+        <v>33.994113072725</v>
+      </c>
+      <c r="G25" s="6">
         <v>2.73</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="H25" s="8">
+        <f t="shared" si="4"/>
+        <v>2.9340456527250005</v>
+      </c>
+      <c r="I25" s="2">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="J25" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5321737500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>3.13</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <f aca="false">B26*7.50062</f>
-        <v>23.4769406</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <f aca="false">1/A26</f>
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>23.476940599999999</v>
+      </c>
+      <c r="D26">
+        <f>1/A26</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">D26/1.381E-023</f>
-        <v>3.62056480811007E+022</v>
-      </c>
-      <c r="G26" s="0" t="n">
+      <c r="E26">
+        <f>D26/1.381E-23</f>
+        <v>3.6205648081100655E+22</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="3"/>
+        <v>26.325632197373</v>
+      </c>
+      <c r="G26">
         <v>2.87</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="H26" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8486915973730014</v>
+      </c>
+      <c r="I26">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>3.5097941500000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>1.9</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>2.299</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <f aca="false">B27*7.50062</f>
+      <c r="B27">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="6"/>
         <v>17.24392538</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <f aca="false">1/A27</f>
-        <v>0.526315789473684</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <f aca="false">D27/1.381E-023</f>
-        <v>3.81112085064217E+022</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="D27">
+        <f>1/A27</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="E27">
+        <f>D27/1.381E-23</f>
+        <v>3.8111208506421735E+22</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="3"/>
+        <v>17.24392538</v>
+      </c>
+      <c r="G27">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="H27" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>2.2990000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>1.8</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>1.638</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <f aca="false">B28*7.50062</f>
-        <v>12.28601556</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <f aca="false">1/A28</f>
-        <v>0.555555555555556</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <f aca="false">D28/1.381E-023</f>
-        <v>4.02284978678896E+022</v>
-      </c>
-      <c r="G28" s="0" t="n">
+      <c r="B28">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="6"/>
+        <v>12.286015559999999</v>
+      </c>
+      <c r="D28">
+        <f>1/A28</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E28">
+        <f>D28/1.381E-23</f>
+        <v>4.0228497867889613E+22</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="3"/>
+        <v>15.017345331263998</v>
+      </c>
+      <c r="G28">
         <v>3.18</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="H28" s="4">
+        <f t="shared" si="4"/>
+        <v>2.731329771263999</v>
+      </c>
+      <c r="I28">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>2.0021472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>1.7</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>1.128</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <f aca="false">B29*7.50062</f>
-        <v>8.46069936</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <f aca="false">1/A29</f>
-        <v>0.588235294117647</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <f aca="false">D29/1.381E-023</f>
-        <v>4.25948800954125E+022</v>
-      </c>
-      <c r="G29" s="0" t="n">
+      <c r="B29" s="6">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="6"/>
+        <v>8.4606993599999996</v>
+      </c>
+      <c r="D29" s="6">
+        <f>1/A29</f>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="E29" s="6">
+        <f>D29/1.381E-23</f>
+        <v>4.2594880095412537E+22</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="3"/>
+        <v>11.170690617426001</v>
+      </c>
+      <c r="G29" s="6">
         <v>3.36</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="H29" s="8">
+        <f t="shared" si="4"/>
+        <v>2.709991257426001</v>
+      </c>
+      <c r="I29" s="2">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="n">
+      <c r="J29" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4893023000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>11</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>3.23</v>
       </c>
-      <c r="H31" s="0" t="n">
-        <f aca="false">1/G31</f>
-        <v>0.309597523219814</v>
-      </c>
-      <c r="I31" s="0" t="n">
+      <c r="H31">
+        <f t="shared" ref="H31:H45" si="7">1/G31</f>
+        <v>0.30959752321981426</v>
+      </c>
+      <c r="I31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>12.8</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32">
         <v>3.15</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <f aca="false">1/G32</f>
-        <v>0.317460317460317</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="n">
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>0.31746031746031744</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33">
         <v>15</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33">
         <v>3.08</v>
       </c>
-      <c r="H33" s="0" t="n">
-        <f aca="false">1/G33</f>
-        <v>0.324675324675325</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="G34" s="0" t="n">
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>0.32467532467532467</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <f aca="false">1/G34</f>
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="n">
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35">
         <v>20</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35">
         <v>2.93</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <f aca="false">1/G35</f>
-        <v>0.341296928327645</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="n">
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>0.34129692832764502</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36">
         <v>22.8</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36">
         <v>2.87</v>
       </c>
-      <c r="H36" s="0" t="n">
-        <f aca="false">1/G36</f>
-        <v>0.348432055749129</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="n">
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>0.34843205574912889</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>26.6</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37">
         <v>2.81</v>
       </c>
-      <c r="H37" s="0" t="n">
-        <f aca="false">1/G37</f>
-        <v>0.355871886120996</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="n">
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>0.35587188612099646</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>28.5</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38">
         <v>2.76</v>
       </c>
-      <c r="H38" s="0" t="n">
-        <f aca="false">1/G38</f>
-        <v>0.36231884057971</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="n">
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>0.3623188405797102</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39">
         <v>31.5</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39">
         <v>2.71</v>
       </c>
-      <c r="H39" s="0" t="n">
-        <f aca="false">1/G39</f>
-        <v>0.3690036900369</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="n">
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>0.36900369003690037</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40">
         <v>34.4</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40">
         <v>2.67</v>
       </c>
-      <c r="H40" s="0" t="n">
-        <f aca="false">1/G40</f>
-        <v>0.374531835205993</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="n">
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>0.37453183520599254</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41">
         <v>37</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41">
         <v>2.63</v>
       </c>
-      <c r="H41" s="0" t="n">
-        <f aca="false">1/G41</f>
-        <v>0.380228136882129</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="n">
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>0.38022813688212931</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42">
         <v>79</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42">
         <v>2.62</v>
       </c>
-      <c r="H42" s="0" t="n">
-        <f aca="false">1/G42</f>
-        <v>0.381679389312977</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="n">
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>0.38167938931297707</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43">
         <v>200</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43">
         <v>2.61</v>
       </c>
-      <c r="H43" s="0" t="n">
-        <f aca="false">1/G43</f>
-        <v>0.383141762452107</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="n">
+      <c r="H43">
+        <f t="shared" si="7"/>
+        <v>0.38314176245210729</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44">
         <v>290</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44">
         <v>2.6</v>
       </c>
-      <c r="H44" s="0" t="n">
-        <f aca="false">1/G44</f>
-        <v>0.384615384615385</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="n">
+      <c r="H44">
+        <f t="shared" si="7"/>
+        <v>0.38461538461538458</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45">
         <v>365</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45">
         <v>2.58</v>
       </c>
-      <c r="H45" s="0" t="n">
-        <f aca="false">1/G45</f>
-        <v>0.387596899224806</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="n">
+      <c r="H45">
+        <f t="shared" si="7"/>
+        <v>0.38759689922480617</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46">
         <v>430</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46">
         <v>2.57</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tundp.xlsx
+++ b/Tundp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>T in K</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>p Probe in kPa</t>
+  </si>
+  <si>
+    <t>T Probe in K</t>
+  </si>
+  <si>
+    <t>∆T</t>
+  </si>
+  <si>
+    <t>∆T mit formel</t>
+  </si>
+  <si>
+    <t>T Probe mit formel</t>
   </si>
 </sst>
 </file>
@@ -926,16 +938,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>68110</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>226870</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>140880</xdr:rowOff>
+      <xdr:rowOff>147230</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1296,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1326,7 @@
     <col min="11" max="1025" width="11.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1345,8 +1357,20 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>4.2</v>
       </c>
@@ -1383,8 +1407,23 @@
         <f>F2/7.50062</f>
         <v>99.855878000000018</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="6">
+        <v>4.21</v>
+      </c>
+      <c r="L2" s="6">
+        <f>A2-K2</f>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="M2" s="6">
+        <f>A31+A32*((LN(J2*1000)-A40)/A41)^1+A33*((LN(J2*1000)-A40)/A41)^2+A34*((LN(J2*1000)-A40)/A41)^3+A35*((LN(J2*1000)-A40)/A41)^4+A36*((LN(J2*1000)-A40)/A41)^5+A37*((LN(J2*1000)-A40)/A41)^6+A38*((LN(J2*1000)-A40)/A41)^7+A39*((LN(J2*1000)-A40)/A41)^8</f>
+        <v>4.2065702927018451</v>
+      </c>
+      <c r="N2" s="6">
+        <f>M2-A2</f>
+        <v>6.5702927018449486E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.0999999999999996</v>
       </c>
@@ -1404,22 +1443,33 @@
         <v>1.766129174687837E+22</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F29" si="3">C3+9.81*7.50062*(I3/100)*(145)/1000</f>
+        <f>C3+9.81*7.50062*(I3/100)*(145)/1000</f>
         <v>676.03088059999993</v>
       </c>
       <c r="G3">
         <v>1.42</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H29" si="4">F3-C3</f>
+        <f t="shared" ref="H3:H29" si="3">F3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J29" si="5">F3/7.50062</f>
+        <f t="shared" ref="J3:J29" si="4">F3/7.50062</f>
         <v>90.13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L29" si="5">A3-K3</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N29" si="6">M3-A3</f>
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1439,22 +1489,33 @@
         <v>1.8102824040550327E+22</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F3:F29" si="7">C4+9.81*7.50062*(I4/100)*(145)/1000</f>
         <v>612.20060439999997</v>
       </c>
       <c r="G4">
         <v>1.45</v>
       </c>
       <c r="H4" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
+        <v>81.62</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="5"/>
-        <v>81.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.9</v>
       </c>
@@ -1474,22 +1535,33 @@
         <v>1.8566999015949056E+22</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>552.49566919999995</v>
       </c>
       <c r="G5">
         <v>1.49</v>
       </c>
       <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
+        <v>73.66</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="5"/>
-        <v>73.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.9</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.8</v>
       </c>
@@ -1509,22 +1581,33 @@
         <v>1.9055604253210867E+22</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>496.91607499999998</v>
       </c>
       <c r="G6">
         <v>1.53</v>
       </c>
       <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
+        <v>66.25</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="5"/>
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.8</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.7</v>
       </c>
@@ -1544,22 +1627,33 @@
         <v>1.9570620584378728E+22</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>445.16179699999998</v>
       </c>
       <c r="G7">
         <v>1.56</v>
       </c>
       <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
+        <v>59.35</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="5"/>
-        <v>59.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.7</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.6</v>
       </c>
@@ -1579,22 +1673,33 @@
         <v>2.0114248933944806E+22</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>397.23283520000001</v>
       </c>
       <c r="G8">
         <v>1.61</v>
       </c>
       <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
+        <v>52.96</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="5"/>
-        <v>52.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -1614,22 +1719,33 @@
         <v>2.0688941760628941E+22</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>352.90417099999996</v>
       </c>
       <c r="G9">
         <v>1.65</v>
       </c>
       <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
+        <v>47.05</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="5"/>
-        <v>47.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3.4</v>
       </c>
@@ -1649,25 +1765,40 @@
         <v>2.1297440047706268E+22</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>315.86672449083994</v>
       </c>
       <c r="G10" s="6">
         <v>1.7</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.8409324908399753</v>
       </c>
       <c r="I10" s="6">
         <v>36</v>
       </c>
       <c r="J10" s="6">
+        <f t="shared" si="4"/>
+        <v>42.112081999999994</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3.41</v>
+      </c>
+      <c r="L10" s="6">
         <f t="shared" si="5"/>
-        <v>42.112081999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-1.0000000000000231E-2</v>
+      </c>
+      <c r="M10" s="6">
+        <f>A31+A32*((LN(J10*1000)-A40)/A41)^1+A33*((LN(J10*1000)-A40)/A41)^2+A34*((LN(J10*1000)-A40)/A41)^3+A35*((LN(J10*1000)-A40)/A41)^4+A36*((LN(J10*1000)-A40)/A41)^5+A37*((LN(J10*1000)-A40)/A41)^6+A38*((LN(J10*1000)-A40)/A41)^7+A39*((LN(J10*1000)-A40)/A41)^8</f>
+        <v>3.4098292816100075</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="6"/>
+        <v>9.829281610007623E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.3</v>
       </c>
@@ -1687,22 +1818,33 @@
         <v>2.1942817018848882E+22</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>274.44768579999999</v>
       </c>
       <c r="G11">
         <v>1.74</v>
       </c>
       <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="5"/>
-        <v>36.590000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.2</v>
       </c>
@@ -1722,22 +1864,33 @@
         <v>2.2628530050687908E+22</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>240.09484619999998</v>
       </c>
       <c r="G12">
         <v>1.79</v>
       </c>
       <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
+        <v>32.01</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="5"/>
-        <v>32.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.1</v>
       </c>
@@ -1757,22 +1910,33 @@
         <v>2.3358482632968164E+22</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>208.81726079999999</v>
       </c>
       <c r="G13">
         <v>1.85</v>
       </c>
       <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
+        <v>27.84</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="5"/>
-        <v>27.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1792,22 +1956,33 @@
         <v>2.4137098720733768E+22</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>180.38991099999998</v>
       </c>
       <c r="G14">
         <v>1.9</v>
       </c>
       <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
+        <v>24.05</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="5"/>
-        <v>24.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2.9</v>
       </c>
@@ -1827,25 +2002,40 @@
         <v>2.4969412469724589E+22</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>158.25864538326999</v>
       </c>
       <c r="G15" s="6">
         <v>1.97</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5208547832700106</v>
       </c>
       <c r="I15" s="6">
         <v>33</v>
       </c>
       <c r="J15" s="6">
+        <f t="shared" si="4"/>
+        <v>21.099408499999999</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2.91</v>
+      </c>
+      <c r="L15" s="6">
         <f t="shared" si="5"/>
-        <v>21.099408499999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-1.0000000000000231E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <f>A31+A32*((LN(J15*1000)-A40)/A41)^1+A33*((LN(J15*1000)-A40)/A41)^2+A34*((LN(J15*1000)-A40)/A41)^3+A35*((LN(J15*1000)-A40)/A41)^4+A36*((LN(J15*1000)-A40)/A41)^5+A37*((LN(J15*1000)-A40)/A41)^6+A38*((LN(J15*1000)-A40)/A41)^7+A39*((LN(J15*1000)-A40)/A41)^8</f>
+        <v>2.914505695191651</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="6"/>
+        <v>1.4505695191651125E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.8</v>
       </c>
@@ -1865,22 +2055,33 @@
         <v>2.5861177200786182E+22</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>131.63588100000001</v>
       </c>
       <c r="G16">
         <v>2.04</v>
       </c>
       <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
+        <v>17.55</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="5"/>
-        <v>17.55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.8</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.7</v>
       </c>
@@ -1900,22 +2101,33 @@
         <v>2.6818998578593074E+22</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>111.0841822</v>
       </c>
       <c r="G17">
         <v>2.1</v>
       </c>
       <c r="H17" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
+        <v>14.81</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="5"/>
-        <v>14.81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.6</v>
       </c>
@@ -1935,22 +2147,33 @@
         <v>2.7850498523923577E+22</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>92.782669399999989</v>
       </c>
       <c r="G18">
         <v>2.1800000000000002</v>
       </c>
       <c r="H18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
+        <v>12.37</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="5"/>
-        <v>12.37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.6</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.5</v>
       </c>
@@ -1970,22 +2193,33 @@
         <v>2.8964518464880525E+22</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>76.731342600000005</v>
       </c>
       <c r="G19">
         <v>2.27</v>
       </c>
       <c r="H19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
+        <v>10.23</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="5"/>
-        <v>10.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.4</v>
       </c>
@@ -2005,22 +2239,33 @@
         <v>3.0171373400917212E+22</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>62.660179479999989</v>
       </c>
       <c r="G20">
         <v>2.36</v>
       </c>
       <c r="H20" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
+        <v>8.3539999999999992</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="5"/>
-        <v>8.3539999999999992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.4</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.2999999999999998</v>
       </c>
@@ -2040,25 +2285,33 @@
         <v>3.1483172244435352E+22</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>53.626603391105</v>
       </c>
       <c r="G21">
         <v>2.46</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.1474307911050019</v>
       </c>
       <c r="I21">
         <v>29.5</v>
       </c>
       <c r="J21">
+        <f t="shared" si="4"/>
+        <v>7.1496227500000007</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="5"/>
-        <v>7.1496227500000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2.2000000000000002</v>
       </c>
@@ -2078,25 +2331,40 @@
         <v>3.2914225528273319E+22</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>43.163238491104998</v>
       </c>
       <c r="G22" s="6">
         <v>2.57</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.1474307911050019</v>
       </c>
       <c r="I22" s="2">
         <v>29.5</v>
       </c>
       <c r="J22" s="6">
+        <f t="shared" si="4"/>
+        <v>5.7546227500000002</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2.23</v>
+      </c>
+      <c r="L22" s="6">
         <f t="shared" si="5"/>
-        <v>5.7546227500000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-2.9999999999999805E-2</v>
+      </c>
+      <c r="M22" s="6">
+        <f>A31+A32*((LN(J22*1000)-A40)/A41)^1+A33*((LN(J22*1000)-A40)/A41)^2+A34*((LN(J22*1000)-A40)/A41)^3+A35*((LN(J22*1000)-A40)/A41)^4+A36*((LN(J22*1000)-A40)/A41)^5+A37*((LN(J22*1000)-A40)/A41)^6+A38*((LN(J22*1000)-A40)/A41)^7+A39*((LN(J22*1000)-A40)/A41)^8</f>
+        <v>2.2316863351287326</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="6"/>
+        <v>3.1686335128732424E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
@@ -2110,23 +2378,38 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>41.040738221914999</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.0407382219149994</v>
       </c>
       <c r="I23" s="2">
         <v>28.5</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.471646106843834</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="6">
+        <v>2.21</v>
+      </c>
+      <c r="L23" s="6">
+        <f>2.18-K23</f>
+        <v>-2.9999999999999805E-2</v>
+      </c>
+      <c r="M23" s="6">
+        <f>A31+A32*((LN(J23*1000)-A40)/A41)^1+A33*((LN(J23*1000)-A40)/A41)^2+A34*((LN(J23*1000)-A40)/A41)^3+A35*((LN(J23*1000)-A40)/A41)^4+A36*((LN(J23*1000)-A40)/A41)^5+A37*((LN(J23*1000)-A40)/A41)^6+A38*((LN(J23*1000)-A40)/A41)^7+A39*((LN(J23*1000)-A40)/A41)^8</f>
+        <v>2.2104351209183228</v>
+      </c>
+      <c r="N23" s="6">
+        <f>M23-2.18</f>
+        <v>3.0435120918322678E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.17</v>
       </c>
@@ -2134,23 +2417,34 @@
         <v>4.9580000000000002</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C29" si="6">B24*7.50062</f>
+        <f t="shared" ref="C24:C29" si="8">B24*7.50062</f>
         <v>37.188073959999997</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="7"/>
+        <v>37.188073959999997</v>
+      </c>
+      <c r="H24" s="4">
         <f t="shared" si="3"/>
-        <v>37.188073959999997</v>
-      </c>
-      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
+        <v>4.9580000000000002</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="5"/>
-        <v>4.9580000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.17</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>-2.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2.1</v>
       </c>
@@ -2158,7 +2452,7 @@
         <v>4.141</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.060067419999999</v>
       </c>
       <c r="D25" s="6">
@@ -2170,25 +2464,40 @@
         <v>3.4481569601048237E+22</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33.994113072725</v>
       </c>
       <c r="G25" s="6">
         <v>2.73</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.9340456527250005</v>
       </c>
       <c r="I25" s="2">
         <v>27.5</v>
       </c>
       <c r="J25" s="6">
+        <f t="shared" si="4"/>
+        <v>4.5321737500000001</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2.13</v>
+      </c>
+      <c r="L25" s="6">
         <f t="shared" si="5"/>
-        <v>4.5321737500000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-2.9999999999999805E-2</v>
+      </c>
+      <c r="M25" s="6">
+        <f>B31+B32*((LN(J25*1000)-B40)/B41)^1+B33*((LN(J25*1000)-B40)/B41)^2+B34*((LN(J25*1000)-B40)/B41)^3+B35*((LN(J25*1000)-B40)/B41)^4+B36*((LN(J25*1000)-B40)/B41)^5+B37*((LN(J25*1000)-B40)/B41)^6+B38*((LN(J25*1000)-B40)/B41)^7+B39*((LN(J25*1000)-B40)/B41)^8</f>
+        <v>2.1344527975877385</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="6"/>
+        <v>3.4452797587738448E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2196,7 +2505,7 @@
         <v>3.13</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23.476940599999999</v>
       </c>
       <c r="D26">
@@ -2208,25 +2517,33 @@
         <v>3.6205648081100655E+22</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26.325632197373</v>
       </c>
       <c r="G26">
         <v>2.87</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.8486915973730014</v>
       </c>
       <c r="I26">
         <v>26.7</v>
       </c>
       <c r="J26">
+        <f t="shared" si="4"/>
+        <v>3.5097941500000003</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="5"/>
-        <v>3.5097941500000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.9</v>
       </c>
@@ -2234,7 +2551,7 @@
         <v>2.2989999999999999</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.24392538</v>
       </c>
       <c r="D27">
@@ -2246,22 +2563,33 @@
         <v>3.8111208506421735E+22</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.24392538</v>
       </c>
       <c r="G27">
         <v>3.01</v>
       </c>
       <c r="H27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J27">
+        <v>2.2990000000000004</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="5"/>
-        <v>2.2990000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.9</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.8</v>
       </c>
@@ -2269,7 +2597,7 @@
         <v>1.6379999999999999</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.286015559999999</v>
       </c>
       <c r="D28">
@@ -2281,25 +2609,33 @@
         <v>4.0228497867889613E+22</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.017345331263998</v>
       </c>
       <c r="G28">
         <v>3.18</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.731329771263999</v>
       </c>
       <c r="I28">
         <v>25.6</v>
       </c>
       <c r="J28">
+        <f t="shared" si="4"/>
+        <v>2.0021472</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="5"/>
-        <v>2.0021472</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1.7</v>
       </c>
@@ -2307,7 +2643,7 @@
         <v>1.1279999999999999</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.4606993599999996</v>
       </c>
       <c r="D29" s="6">
@@ -2319,25 +2655,46 @@
         <v>4.2594880095412537E+22</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11.170690617426001</v>
       </c>
       <c r="G29" s="6">
         <v>3.36</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.709991257426001</v>
       </c>
       <c r="I29" s="2">
         <v>25.4</v>
       </c>
       <c r="J29" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4893023000000001</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="L29" s="6">
         <f t="shared" si="5"/>
-        <v>1.4893023000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-7.0000000000000062E-2</v>
+      </c>
+      <c r="M29" s="6">
+        <f>B31+B32*((LN(J29*1000)-B40)/B41)^1+B33*((LN(J29*1000)-B40)/B41)^2+B34*((LN(J29*1000)-B40)/B41)^3+B35*((LN(J29*1000)-B40)/B41)^4+B36*((LN(J29*1000)-B40)/B41)^5+B37*((LN(J29*1000)-B40)/B41)^6+B38*((LN(J29*1000)-B40)/B41)^7+B39*((LN(J29*1000)-B40)/B41)^8</f>
+        <v>1.7735175768519196</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="6"/>
+        <v>7.3517576851919619E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3.1466310000000002</v>
+      </c>
+      <c r="B31">
+        <v>1.3924080000000001</v>
+      </c>
       <c r="C31">
         <v>11</v>
       </c>
@@ -2345,14 +2702,20 @@
         <v>3.23</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H45" si="7">1/G31</f>
+        <f t="shared" ref="H31:H45" si="9">1/G31</f>
         <v>0.30959752321981426</v>
       </c>
       <c r="I31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.3576550000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.52715299999999998</v>
+      </c>
       <c r="C32">
         <v>12.8</v>
       </c>
@@ -2360,11 +2723,17 @@
         <v>3.15</v>
       </c>
       <c r="H32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.31746031746031744</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.413823</v>
+      </c>
+      <c r="B33">
+        <v>0.16675599999999999</v>
+      </c>
       <c r="C33">
         <v>15</v>
       </c>
@@ -2372,11 +2741,17 @@
         <v>3.08</v>
       </c>
       <c r="H33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.32467532467532467</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9.1159000000000004E-2</v>
+      </c>
+      <c r="B34">
+        <v>5.0987999999999999E-2</v>
+      </c>
       <c r="C34">
         <v>17.399999999999999</v>
       </c>
@@ -2384,11 +2759,17 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.6348999999999999E-2</v>
+      </c>
+      <c r="B35">
+        <v>2.6513999999999999E-2</v>
+      </c>
       <c r="C35">
         <v>20</v>
       </c>
@@ -2396,11 +2777,17 @@
         <v>2.93</v>
       </c>
       <c r="H35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.34129692832764502</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.8259999999999999E-3</v>
+      </c>
+      <c r="B36">
+        <v>1.9750000000000002E-3</v>
+      </c>
       <c r="C36">
         <v>22.8</v>
       </c>
@@ -2408,11 +2795,17 @@
         <v>2.87</v>
       </c>
       <c r="H36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.34843205574912889</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-4.3249999999999999E-3</v>
+      </c>
+      <c r="B37">
+        <v>-1.7975999999999999E-2</v>
+      </c>
       <c r="C37">
         <v>26.6</v>
       </c>
@@ -2420,11 +2813,17 @@
         <v>2.81</v>
       </c>
       <c r="H37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.35587188612099646</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-4.973E-3</v>
+      </c>
+      <c r="B38">
+        <v>5.4089999999999997E-3</v>
+      </c>
       <c r="C38">
         <v>28.5</v>
       </c>
@@ -2432,11 +2831,17 @@
         <v>2.76</v>
       </c>
       <c r="H38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.3623188405797102</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1.3259E-2</v>
+      </c>
       <c r="C39">
         <v>31.5</v>
       </c>
@@ -2444,11 +2849,17 @@
         <v>2.71</v>
       </c>
       <c r="H39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.36900369003690037</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10.3</v>
+      </c>
+      <c r="B40">
+        <v>5.6</v>
+      </c>
       <c r="C40">
         <v>34.4</v>
       </c>
@@ -2456,11 +2867,17 @@
         <v>2.67</v>
       </c>
       <c r="H40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37453183520599254</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.9</v>
+      </c>
+      <c r="B41">
+        <v>2.9</v>
+      </c>
       <c r="C41">
         <v>37</v>
       </c>
@@ -2468,11 +2885,11 @@
         <v>2.63</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38022813688212931</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>79</v>
       </c>
@@ -2480,11 +2897,11 @@
         <v>2.62</v>
       </c>
       <c r="H42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38167938931297707</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>200</v>
       </c>
@@ -2492,11 +2909,11 @@
         <v>2.61</v>
       </c>
       <c r="H43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38314176245210729</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>290</v>
       </c>
@@ -2504,11 +2921,11 @@
         <v>2.6</v>
       </c>
       <c r="H44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38461538461538458</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>365</v>
       </c>
@@ -2516,11 +2933,11 @@
         <v>2.58</v>
       </c>
       <c r="H45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38759689922480617</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>430</v>
       </c>
